--- a/Producto/Web/Casos de prueba/11.xlsx
+++ b/Producto/Web/Casos de prueba/11.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="315" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="6810" yWindow="315" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="DatosGenerales" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -82,19 +82,37 @@
     <t>2</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Registrar Usuario</t>
-  </si>
-  <si>
-    <t>Registrar un usuario en la base de datos</t>
-  </si>
-  <si>
-    <t>El usuario "CPA_Usuario" no existe en la base de datos</t>
-  </si>
-  <si>
     <t>ingreso al sistema.</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Crear Rol</t>
+  </si>
+  <si>
+    <t>Crear un nuevo rol en el sistema</t>
+  </si>
+  <si>
+    <t>El rol "CPA_Rol" no existe en la base de datos</t>
+  </si>
+  <si>
+    <t>El usuario logueado es un usuario administrador</t>
+  </si>
+  <si>
+    <t>Seleccionar la opcion Administracon de usuarios &gt; Nuevo Rol</t>
+  </si>
+  <si>
+    <t>Se muestra la pagina AdministracionUsuarios.aspx?action=NuevoRol</t>
+  </si>
+  <si>
+    <t>Ingreso "CPA_Rol" en el campo nombre y "CPA_Descripcion" en el campo descripcion</t>
+  </si>
+  <si>
+    <t>Presiono el boton Guardar</t>
+  </si>
+  <si>
+    <t>Se muestra un mensaje de exito.</t>
   </si>
 </sst>
 </file>
@@ -573,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -588,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" thickBot="1">
@@ -596,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1">
@@ -604,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32.25" thickBot="1">
@@ -621,7 +639,7 @@
       </c>
       <c r="B5" s="11">
         <f>MAX(Pasos!A:A)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1">
@@ -651,10 +669,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -674,12 +692,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="25.5">
+    <row r="2" spans="1:3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -694,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -724,24 +750,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="3" spans="1:4" ht="26.25" thickBot="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+    <row r="4" spans="1:4" ht="26.25" thickBot="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="1"/>
     </row>
@@ -749,20 +781,20 @@
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" s="6"/>
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="6"/>
       <c r="C7" s="8"/>
     </row>
